--- a/Test Data/TC_65367_Verify_Impact_Of_Cable_Length_Cable_Resistance_On_Volt_Drop_Calculation_FC.xlsx
+++ b/Test Data/TC_65367_Verify_Impact_Of_Cable_Length_Cable_Resistance_On_Volt_Drop_Calculation_FC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D835126-B632-4BEB-BC41-190B6E45EB80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7497F5-B9DD-4270-B91D-165AA77AB9F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{909A8366-666E-4CCA-9776-5FB1A83C0292}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="49">
   <si>
     <t xml:space="preserve">Note: Do not change the column/rows index </t>
   </si>
@@ -168,6 +168,18 @@
   </si>
   <si>
     <t>0.92</t>
+  </si>
+  <si>
+    <t>Volt Drop (worst case)</t>
+  </si>
+  <si>
+    <t>Volt Drop (V)</t>
+  </si>
+  <si>
+    <t>Volt drop Loading Details Name</t>
+  </si>
+  <si>
+    <t>Volt drop worst case Loading Details Name</t>
   </si>
 </sst>
 </file>
@@ -264,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -299,6 +311,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,7 +632,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,9 +641,10 @@
     <col min="2" max="2" width="65.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -675,6 +691,9 @@
       <c r="D3" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="E3" s="23" t="s">
+        <v>46</v>
+      </c>
       <c r="G3" s="5"/>
       <c r="H3" s="12" t="s">
         <v>21</v>
@@ -690,6 +709,9 @@
       <c r="D4" s="15" t="s">
         <v>14</v>
       </c>
+      <c r="E4" s="23" t="s">
+        <v>45</v>
+      </c>
       <c r="G4" s="16"/>
       <c r="H4" s="12" t="s">
         <v>22</v>
@@ -718,8 +740,12 @@
       <c r="G5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
+      <c r="H5" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -743,6 +769,12 @@
       <c r="G6" s="1">
         <v>0.74</v>
       </c>
+      <c r="H6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -766,6 +798,12 @@
       <c r="G7" s="21" t="s">
         <v>42</v>
       </c>
+      <c r="H7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -788,6 +826,12 @@
       </c>
       <c r="G8" s="21" t="s">
         <v>44</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/TC_65367_Verify_Impact_Of_Cable_Length_Cable_Resistance_On_Volt_Drop_Calculation_FC.xlsx
+++ b/Test Data/TC_65367_Verify_Impact_Of_Cable_Length_Cable_Resistance_On_Volt_Drop_Calculation_FC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7497F5-B9DD-4270-B91D-165AA77AB9F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D395CC4-D137-4002-A3F4-70A9DD88C79E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{909A8366-666E-4CCA-9776-5FB1A83C0292}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{909A8366-666E-4CCA-9776-5FB1A83C0292}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices Loop A" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="58">
   <si>
     <t xml:space="preserve">Note: Do not change the column/rows index </t>
   </si>
@@ -158,18 +158,6 @@
     <t>460PH - 3</t>
   </si>
   <si>
-    <t>0.43</t>
-  </si>
-  <si>
-    <t>0.79</t>
-  </si>
-  <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>0.92</t>
-  </si>
-  <si>
     <t>Volt Drop (worst case)</t>
   </si>
   <si>
@@ -180,6 +168,45 @@
   </si>
   <si>
     <t>Volt drop worst case Loading Details Name</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>Built-in Loop-A</t>
+  </si>
+  <si>
+    <t>Built-in Loop-B</t>
+  </si>
+  <si>
+    <t>Built-in Loop-C</t>
+  </si>
+  <si>
+    <t>Built-in Loop-D</t>
+  </si>
+  <si>
+    <t>DC_Column</t>
+  </si>
+  <si>
+    <t>VoltDrop Mean</t>
+  </si>
+  <si>
+    <t>VoltDrop Worst</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>0.51</t>
   </si>
 </sst>
 </file>
@@ -236,7 +263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -272,11 +299,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -309,11 +349,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37698239-2F64-411E-8891-9071AB24FC45}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -645,10 +695,11 @@
     <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" style="26" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>23</v>
       </c>
@@ -656,15 +707,27 @@
         <v>26</v>
       </c>
       <c r="C1" s="11"/>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="22"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J1" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>24</v>
       </c>
@@ -676,9 +739,20 @@
       <c r="H2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="25">
+        <v>2</v>
+      </c>
+      <c r="L2" s="25">
+        <v>3</v>
+      </c>
+      <c r="M2" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>25</v>
       </c>
@@ -691,16 +765,19 @@
       <c r="D3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="23" t="s">
-        <v>46</v>
+      <c r="E3" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
       <c r="C4" s="13" t="s">
@@ -709,16 +786,19 @@
       <c r="D4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>45</v>
+      <c r="E4" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="25"/>
+    </row>
+    <row r="5" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
@@ -741,13 +821,17 @@
         <v>3</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="25"/>
+    </row>
+    <row r="6" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
@@ -761,22 +845,22 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.74</v>
+        <v>45</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>46</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>39</v>
       </c>
@@ -790,22 +874,22 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="F7" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>38</v>
       </c>
@@ -819,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>291.60000000000002</v>
+        <v>305</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -871,10 +955,10 @@
         <v>26</v>
       </c>
       <c r="C1" s="11"/>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="22"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1033,10 +1117,10 @@
         <v>26</v>
       </c>
       <c r="C1" s="11"/>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="22"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
